--- a/MiseAJour_Contenu_DocumentsAjoutes/ig/all-profiles.xlsx
+++ b/MiseAJour_Contenu_DocumentsAjoutes/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T17:04:50+00:00</t>
+    <t>2025-01-20T17:15:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MiseAJour_Contenu_DocumentsAjoutes/ig/all-profiles.xlsx
+++ b/MiseAJour_Contenu_DocumentsAjoutes/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T17:15:46+00:00</t>
+    <t>2025-01-24T13:34:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MiseAJour_Contenu_DocumentsAjoutes/ig/all-profiles.xlsx
+++ b/MiseAJour_Contenu_DocumentsAjoutes/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T13:34:54+00:00</t>
+    <t>2025-01-27T08:19:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MiseAJour_Contenu_DocumentsAjoutes/ig/all-profiles.xlsx
+++ b/MiseAJour_Contenu_DocumentsAjoutes/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T08:19:56+00:00</t>
+    <t>2025-01-27T08:29:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
